--- a/biology/Médecine/Éminence_hypothénar/Éminence_hypothénar.xlsx
+++ b/biology/Médecine/Éminence_hypothénar/Éminence_hypothénar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89minence_hypoth%C3%A9nar</t>
+          <t>Éminence_hypothénar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éminence hypothénar est une saillie musculaire arrondie de la main située médialement et au dessus de l'auriculaire.
 Elle est formée par un groupe de quatre muscles qui contrôlent le mouvement de l'auriculaire qui sont de la superficie vers la profondeur:
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89minence_hypoth%C3%A9nar</t>
+          <t>Éminence_hypothénar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une atrophie de l'hypothénar peut s'observer en cas de lésion du nerf ulnaire.
 Une occlusion de l'artère ulnaire entraîne le syndrome du marteau hypothénar.
